--- a/biology/Zoologie/Chat_(animal)/Chat_(animal).xlsx
+++ b/biology/Zoologie/Chat_(animal)/Chat_(animal).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chat est un terme ambigu employé en français pour désigner de nombreux félins de taille moyenne ou petite, appartenant à la sous-famille des félinés. Employé seul, il s'agit du nom vernaculaire donné au chat domestique (Felis silvestris catus). Par synecdoque, chat peut désigner l'ensemble des félins : l'expression « chat sauvage » s'applique à plusieurs espèces ou sous-espèces de petits félins, tandis que la sous-famille des Panthérinés est parfois désignée par l'expression « grands chats ».
 </t>
@@ -511,51 +523,258 @@
           <t>Liste de noms français de félins appelés « chat »</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Liste alphabétique de noms vulgaires ou de noms vernaculaires attestés[1] en français. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste alphabétique de noms vulgaires ou de noms vernaculaires attestés en français. 
 Note : certaines espèces ont plusieurs noms et figurent donc plusieurs fois dans cette liste. Les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide.
-A-C
-Chat des Andes : Oreailurus jacobita
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chat_(animal)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chat_(animal)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste de noms français de félins appelés « chat »</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A-C</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chat des Andes : Oreailurus jacobita
 Il vit dans les Andes, entre le Chili et le Pérou. Sa robe gris-brun argenté, très fournie, lui permet de fréquenter les hauts sommets, jusqu'à 5 000 m.
 Chat bai : Pardofelis badia
-Il vit à Bornéo et se distingue de ses congénères locaux par une robe uniforme rousse ou brune. Il se nourrit principalement de petits mammifères comme les rongeurs. Son poids se situe entre 2 et 4 kg[2].
+Il vit à Bornéo et se distingue de ses congénères locaux par une robe uniforme rousse ou brune. Il se nourrit principalement de petits mammifères comme les rongeurs. Son poids se situe entre 2 et 4 kg.
 Chat de Biet (ou chat des déserts de Chine) : Felis bieti
 Il vit dans les steppes de Mongolie et on le rencontre en montagne, jusqu'à 3 000 m d'altitude. Sa robe est pâle, avec des rayures peu prononcées.
 Chaus (ou chat des marais, de jungle) - Felis chaus
 Il vit en Inde, mais on le rencontre jusqu'en Thaïlande, où il s'est spécialisé dans la chasse au canard. Ce grand chat vivait auparavant en Afrique.
 Chat du Chili : Leopardus guigna
 Petit félin tacheté des forêts d'Amérique du Sud, deux fois plus petit qu'un chat domestique.
-Chat de Chine : Prionailurus bengalensis
-D
-Chat du désert : Felis margarita
+Chat de Chine : Prionailurus bengalensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chat_(animal)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chat_(animal)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste de noms français de félins appelés « chat »</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chat du désert : Felis margarita
 Chat domestique : Felis silvestris catus
 Chat doré africain : Profelis aurata
 Il vit dans les forêts du bassin du Congo. De taille moyenne, sa robe est brun doré.
 Chat doré d'Asie : Catopuma temminckii
-Il vit en Chine du Sud et en Inde, dans les forêts et les montagnes de basse altitude. Son poids dépasse facilement les 10 kg.
-G-I
-Chat ganté : Felis silvestris lybica
+Il vit en Chine du Sud et en Inde, dans les forêts et les montagnes de basse altitude. Son poids dépasse facilement les 10 kg.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chat_(animal)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chat_(animal)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste de noms français de félins appelés « chat »</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>G-I</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chat ganté : Felis silvestris lybica
 Petit félin commun dans toute l'Afrique, il porte une robe tabby sur fond jaune. Il chasse la nuit et se domestique assez facilement.
 Chat du Général Marguerite : Felis margarita
 Chat de Geoffroy : Oncifelis geoffroyi
 On le rencontre de la Bolivie jusqu'en Patagonie. Il vit dans les arbres et chasse la nuit. Sa robe est tabby gris-brun.
 Chat haret : Felis silvestris
-Chat d'Iriomote : Prionailurus bengalensis iriomotensis
-L
-Chat léopard du Bengale : Prionailurus bengalensis
+Chat d'Iriomote : Prionailurus bengalensis iriomotensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chat_(animal)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chat_(animal)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste de noms français de félins appelés « chat »</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Chat léopard du Bengale : Prionailurus bengalensis
 Il vit en Asie du Sud-Est, en Sibérie, au Tibet et en Chine. D'un poids moyen de 5 kg, sa robe ressemble à celle de la panthère et est considérée comme telle.
-Chat léopard de l'Inde : Prionailurus bengalensis
-M-O
-Chat marbré : Pardofelis marmorata
+Chat léopard de l'Inde : Prionailurus bengalensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chat_(animal)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chat_(animal)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste de noms français de félins appelés « chat »</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>M-O</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Chat marbré : Pardofelis marmorata
 Il vit surtout en Birmanie, au Népal et à Bornéo. De taille moyenne, mais possédant de longues pattes, c'est un chasseur d'oiseaux redoutable. Il adore vivre dans les arbres, près d'un point d'eau. Sa robe ressemble à celle de la panthère.
 Chat de Marguerite : Felis margarita
 Chat de Mongolie : Felis bieti
 Chat des montagnes chinoises : Felis bieti
 Chat orné (ou chat des steppes)
-Il vit dans les steppes et les forêts de l’ouest de l’Asie jusqu'au désert de l’Indus. Sa robe est tabby fauve clair [réf. souhaitée].
-P-R
-Chat pajeros : Oncifelis colocolo
+Il vit dans les steppes et les forêts de l’ouest de l’Asie jusqu'au désert de l’Indus. Sa robe est tabby fauve clair [réf. souhaitée].</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chat_(animal)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chat_(animal)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste de noms français de félins appelés « chat »</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>P-R</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Chat pajeros : Oncifelis colocolo
 Chat de Pallas : Otocolobus manul
 Il vit en Asie centrale, en Chine occidentale et en Russie de l'Est. Sa robe est grise et son poids atteint de 3 à 5 kg.
 Chat des pampas : Oncifelis colocolo
@@ -566,14 +785,82 @@
 Chat pêcheur : Prionailurus viverrinus
 Chat à pieds noirs : Felis nigripes
 Chat rubigineux (ou chat rougeâtre, chat rouilleux…) : Prionailurus rubiginosus
-Il vit dans les régions herbeuses le Sud de l'Inde. Plus petit que le chat domestique, sa robe rousse tachetée est rayée de brun.
-S
-Chat des sables (ou chat de Marguerite) : Felis margarita
+Il vit dans les régions herbeuses le Sud de l'Inde. Plus petit que le chat domestique, sa robe rousse tachetée est rayée de brun.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chat_(animal)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chat_(animal)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste de noms français de félins appelés « chat »</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Chat des sables (ou chat de Marguerite) : Felis margarita
 Il vit principalement dans les déserts d'Afrique et du Moyen-Orient. Son pelage très peu rayé lui permet de bien s'adapter à son environnement.
 Chat sauvage : Felis silvestris.
-Il vit dans les forêts d'Europe centrale et méridionale. De la taille d'un renard, sa fourrure est tabby brun-roux, et sa queue annelée est en forme de massue.
-T-V
-Chat de Temminck : Catopuma temminckii
+Il vit dans les forêts d'Europe centrale et méridionale. De la taille d'un renard, sa fourrure est tabby brun-roux, et sa queue annelée est en forme de massue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chat_(animal)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chat_(animal)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste de noms français de félins appelés « chat »</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>T-V</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Chat de Temminck : Catopuma temminckii
 Chat à tête plate : Prionailurus planiceps
 Il vit en Malaisie. Assez petit, il a les pattes et la queue courtes, une robe brun argenté. Il adore vivre près de l'eau et se nourrit aussi bien de poisson que d'oiseaux ou de petits rongeurs.
 Chat-tigre désigne plusieurs espèces de petit félins sud-américain
